--- a/Packages/cn.etetet.yiuilubangen/Luban/Config/Datas/Item.xlsx
+++ b/Packages/cn.etetet.yiuilubangen/Luban/Config/Datas/Item.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="132">
   <si>
     <t>##var</t>
   </si>
@@ -176,76 +176,76 @@
     <t>灵气倍率</t>
   </si>
   <si>
-    <t xml:space="preserve">芭蕉扇 </t>
+    <t>芭蕉扇</t>
   </si>
   <si>
     <t>每当法炼制材料成功，此法宝的灵气加成+1。</t>
   </si>
   <si>
-    <t xml:space="preserve">斩仙飞刀 </t>
+    <t>斩仙飞刀</t>
   </si>
   <si>
     <t>移动速度+10%，免疫伤害+10%</t>
   </si>
   <si>
-    <t xml:space="preserve">定风珠 </t>
-  </si>
-  <si>
-    <t>伤害+10%,获得的物品基础收藏值 + 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">风火轮 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">摄魂镜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">如意金箍棒 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">宝莲灯 </t>
+    <t>定风珠</t>
+  </si>
+  <si>
+    <t>伤害+10%,获得的物品基础收藏值+100</t>
+  </si>
+  <si>
+    <t>风火轮</t>
+  </si>
+  <si>
+    <t>摄魂镜</t>
+  </si>
+  <si>
+    <t>如意金箍棒</t>
+  </si>
+  <si>
+    <t>宝莲灯</t>
   </si>
   <si>
     <t>灵气加成+50，倍乘+1</t>
   </si>
   <si>
-    <t xml:space="preserve">乾坤圈 </t>
+    <t>乾坤圈</t>
   </si>
   <si>
     <t>卖出的价格=10*关卡数</t>
   </si>
   <si>
-    <t xml:space="preserve">混天绫 </t>
-  </si>
-  <si>
-    <t>当合成时，合成成功后收藏值增加 = 含有水属性的物品*100，</t>
-  </si>
-  <si>
-    <t xml:space="preserve">紫金葫芦 </t>
+    <t>混天绫</t>
+  </si>
+  <si>
+    <t>当合成时，合成成功后收藏值增加=含有水属性的物品*100，</t>
+  </si>
+  <si>
+    <t>紫金葫芦</t>
   </si>
   <si>
     <t>物品爆率+10%</t>
   </si>
   <si>
-    <t xml:space="preserve">七宝妙树 </t>
+    <t>七宝妙树</t>
   </si>
   <si>
     <t>灵气加成+50，倍乘+1，每当法宝炼制成功，此法宝的灵气加成+10（目前效果0）。</t>
   </si>
   <si>
-    <t xml:space="preserve">九龙神火罩 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">太乙拂尘 </t>
+    <t>九龙神火罩</t>
+  </si>
+  <si>
+    <t>太乙拂尘</t>
   </si>
   <si>
     <t>伤害+10%</t>
   </si>
   <si>
-    <t xml:space="preserve">昆仑镜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">太极图 </t>
+    <t>昆仑镜</t>
+  </si>
+  <si>
+    <t>太极图</t>
   </si>
   <si>
     <t>混元金斗</t>
@@ -290,9 +290,6 @@
     <t>七宝浮屠</t>
   </si>
   <si>
-    <t>七宝妙树</t>
-  </si>
-  <si>
     <t>七星挽月鞭</t>
   </si>
   <si>
@@ -302,7 +299,7 @@
     <t>清净琉璃瓶</t>
   </si>
   <si>
-    <t>获得的物品基础收藏值 + 300</t>
+    <t>获得的物品基础收藏值+300</t>
   </si>
   <si>
     <t>人参果树</t>
@@ -368,55 +365,55 @@
     <t>招妖幡</t>
   </si>
   <si>
-    <t xml:space="preserve"> 芭蕉叶 </t>
+    <t>芭蕉叶</t>
   </si>
   <si>
     <t>合成材料</t>
   </si>
   <si>
-    <t xml:space="preserve"> 寒铁 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 避风珠 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 莲花瓣 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 黑曜石 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 海底玄铁 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 风火精钢 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 纯金 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 绫罗 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 紫金 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 七宝石 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 赤铜 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 白马尾 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 昆仑玉 </t>
+    <t>寒铁</t>
+  </si>
+  <si>
+    <t>避风珠</t>
+  </si>
+  <si>
+    <t>莲花瓣</t>
+  </si>
+  <si>
+    <t>黑曜石</t>
+  </si>
+  <si>
+    <t>海底玄铁</t>
+  </si>
+  <si>
+    <t>风火精钢</t>
+  </si>
+  <si>
+    <t>纯金</t>
+  </si>
+  <si>
+    <t>绫罗</t>
+  </si>
+  <si>
+    <t>紫金</t>
+  </si>
+  <si>
+    <t>七宝石</t>
+  </si>
+  <si>
+    <t>赤铜</t>
+  </si>
+  <si>
+    <t>白马尾</t>
+  </si>
+  <si>
+    <t>昆仑玉</t>
   </si>
   <si>
     <t>有药用价值的药草，合成材料</t>
   </si>
   <si>
-    <t xml:space="preserve"> 混沌玉 </t>
+    <t>混沌玉</t>
   </si>
   <si>
     <t>甘草</t>
@@ -1456,8 +1453,8 @@
   <sheetPr/>
   <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3333,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H33" s="6">
         <v>1</v>
@@ -3390,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H34" s="6">
         <v>1</v>
@@ -3447,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H35" s="6">
         <v>1</v>
@@ -3504,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H36" s="6">
         <v>1</v>
@@ -3552,16 +3549,16 @@
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>92</v>
       </c>
       <c r="H37" s="6">
         <v>1</v>
@@ -3618,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H38" s="6">
         <v>1</v>
@@ -3675,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H39" s="6">
         <v>1</v>
@@ -3723,16 +3720,16 @@
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0</v>
+      </c>
+      <c r="G40" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
-      <c r="F40" s="6">
-        <v>0</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="H40" s="6">
         <v>1</v>
@@ -3789,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H41" s="6">
         <v>1</v>
@@ -3846,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H42" s="6">
         <v>1</v>
@@ -3903,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H43" s="6">
         <v>1</v>
@@ -3960,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H44" s="6">
         <v>1</v>
@@ -4017,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H45" s="6">
         <v>1</v>
@@ -4074,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H46" s="6">
         <v>1</v>
@@ -4122,16 +4119,16 @@
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="6">
+        <v>0</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="E47" s="6">
-        <v>0</v>
-      </c>
-      <c r="F47" s="6">
-        <v>0</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="H47" s="6">
         <v>1</v>
@@ -4179,16 +4176,16 @@
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0</v>
+      </c>
+      <c r="G48" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="E48" s="6">
-        <v>0</v>
-      </c>
-      <c r="F48" s="6">
-        <v>0</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="H48" s="6">
         <v>1</v>
@@ -4245,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H49" s="6">
         <v>1</v>
@@ -4302,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H50" s="6">
         <v>1</v>
@@ -4359,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H51" s="6">
         <v>1</v>
@@ -4416,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H52" s="6">
         <v>1</v>
@@ -4473,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H53" s="6">
         <v>1</v>
@@ -4530,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H54" s="6">
         <v>1</v>
@@ -4587,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H55" s="6">
         <v>1</v>
@@ -4644,7 +4641,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H56" s="6">
         <v>1</v>
@@ -4691,10 +4688,10 @@
         <v>1053</v>
       </c>
       <c r="C57" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>114</v>
       </c>
       <c r="E57" s="6">
         <v>2</v>
@@ -4703,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H57" s="6">
         <v>1</v>
@@ -4748,10 +4745,10 @@
         <v>1054</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E58" s="6">
         <v>2</v>
@@ -4760,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H58" s="6">
         <v>1</v>
@@ -4805,10 +4802,10 @@
         <v>1055</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E59" s="6">
         <v>2</v>
@@ -4817,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H59" s="6">
         <v>1</v>
@@ -4862,10 +4859,10 @@
         <v>1056</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E60" s="6">
         <v>2</v>
@@ -4874,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H60" s="6">
         <v>1</v>
@@ -4919,10 +4916,10 @@
         <v>1057</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E61" s="4">
         <v>2</v>
@@ -4931,7 +4928,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H61" s="6">
         <v>1</v>
@@ -4976,10 +4973,10 @@
         <v>1058</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E62" s="6">
         <v>2</v>
@@ -4988,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H62" s="6">
         <v>1</v>
@@ -5033,10 +5030,10 @@
         <v>1059</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" s="6">
         <v>2</v>
@@ -5045,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H63" s="6">
         <v>1</v>
@@ -5090,10 +5087,10 @@
         <v>1060</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E64" s="6">
         <v>2</v>
@@ -5102,7 +5099,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H64" s="6">
         <v>1</v>
@@ -5147,10 +5144,10 @@
         <v>1061</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E65" s="6">
         <v>2</v>
@@ -5159,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H65" s="6">
         <v>1</v>
@@ -5204,10 +5201,10 @@
         <v>1062</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E66" s="4">
         <v>2</v>
@@ -5216,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H66" s="6">
         <v>1</v>
@@ -5261,10 +5258,10 @@
         <v>1063</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E67" s="6">
         <v>2</v>
@@ -5273,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H67" s="6">
         <v>1</v>
@@ -5318,10 +5315,10 @@
         <v>1064</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E68" s="6">
         <v>2</v>
@@ -5330,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H68" s="6">
         <v>1</v>
@@ -5375,10 +5372,10 @@
         <v>1065</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E69" s="6">
         <v>2</v>
@@ -5387,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H69" s="6">
         <v>1</v>
@@ -5432,10 +5429,10 @@
         <v>1066</v>
       </c>
       <c r="C70" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>127</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>128</v>
       </c>
       <c r="E70" s="6">
         <v>2</v>
@@ -5444,7 +5441,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H70" s="6">
         <v>1</v>
@@ -5489,10 +5486,10 @@
         <v>1067</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E71" s="4">
         <v>2</v>
@@ -5501,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H71" s="6">
         <v>1</v>
@@ -5546,10 +5543,10 @@
         <v>1068</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E72" s="6">
         <v>2</v>
@@ -5558,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H72" s="6">
         <v>1</v>
@@ -5603,10 +5600,10 @@
         <v>1069</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E73" s="6">
         <v>2</v>
@@ -5615,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H73" s="6">
         <v>1</v>
@@ -5660,10 +5657,10 @@
         <v>1070</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E74" s="4">
         <v>2</v>
@@ -5672,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H74" s="6">
         <v>1</v>
